--- a/noc_project/upload/data_up_load.xlsx
+++ b/noc_project/upload/data_up_load.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nat03\Documents\noc_noc_project\noc_project\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CB7A98-9A9B-4778-9EA4-21A703388967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E15F68-06C6-422B-830E-DD6AE4FA6316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="456" yWindow="348" windowWidth="17772" windowHeight="9084" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="113">
   <si>
     <t>Project Name</t>
   </si>
@@ -346,11 +346,6 @@
   </si>
   <si>
     <t>ประชา เทสเซอร์วิส</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ขายเฉพาะ MA Hardware
-Onsite : 6 ครั้ง/3 ปี
-Change Config : ไม่มี </t>
   </si>
   <si>
     <t>ผู้ติดต่อหลัก : XXXXXXXXXX
@@ -389,6 +384,14 @@
   </si>
   <si>
     <t>เก็บข้อมูล detail ขนาดใหญ่ เว้นบรรทัดได้</t>
+  </si>
+  <si>
+    <t>ขายเฉพาะ MA Hardware
+Onsite : 6 ครั้ง/3 ปี
+Change Config : ไม่มี ola</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -871,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -881,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -955,13 +958,13 @@
         <v>62</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1025,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4E697B-494D-4CFB-A0D3-56E0E3C6F8AD}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1060,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -1074,58 +1077,121 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
       </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
       </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
       </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1133,16 +1199,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
         <v>109</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
       </c>
       <c r="D10" t="s">
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1251,7 @@
         <v>41</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>6</v>
@@ -1216,25 +1282,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/noc_project/upload/data_up_load.xlsx
+++ b/noc_project/upload/data_up_load.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nat03\Documents\noc_noc_project\noc_project\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E15F68-06C6-422B-830E-DD6AE4FA6316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8736DA07-0EEF-410B-992D-973ED6A505E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="456" yWindow="348" windowWidth="17772" windowHeight="9084" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3672" yWindow="252" windowWidth="17772" windowHeight="7392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -1537,7 +1537,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1719,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/noc_project/upload/data_up_load.xlsx
+++ b/noc_project/upload/data_up_load.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nat03\Documents\noc_noc_project\noc_project\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8736DA07-0EEF-410B-992D-973ED6A505E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB7232-6897-4308-B824-384747480396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3672" yWindow="252" windowWidth="17772" windowHeight="7392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -386,12 +386,10 @@
     <t>เก็บข้อมูล detail ขนาดใหญ่ เว้นบรรทัดได้</t>
   </si>
   <si>
-    <t>ขายเฉพาะ MA Hardware
-Onsite : 6 ครั้ง/3 ปี
-Change Config : ไม่มี ola</t>
-  </si>
-  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -884,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -964,7 +962,7 @@
         <v>101</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1028,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4E697B-494D-4CFB-A0D3-56E0E3C6F8AD}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1083,13 +1081,13 @@
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1100,13 +1098,13 @@
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1117,13 +1115,13 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1134,13 +1132,13 @@
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1151,13 +1149,13 @@
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1168,13 +1166,13 @@
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1185,13 +1183,13 @@
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/noc_project/upload/data_up_load.xlsx
+++ b/noc_project/upload/data_up_load.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nat03\Documents\noc_noc_project\noc_project\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB7232-6897-4308-B824-384747480396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BA4C74-32C9-4C89-937B-DF4FCCE98C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
   <si>
     <t>Project Name</t>
   </si>
@@ -390,6 +390,18 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>099-6253877</t>
+  </si>
+  <si>
+    <t>Super_test</t>
+  </si>
+  <si>
+    <t>Suradech</t>
   </si>
 </sst>
 </file>
@@ -882,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -965,6 +977,20 @@
         <v>112</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4"/>
     </row>
@@ -1026,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4E697B-494D-4CFB-A0D3-56E0E3C6F8AD}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1166,13 +1192,13 @@
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/noc_project/upload/data_up_load.xlsx
+++ b/noc_project/upload/data_up_load.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nat03\Documents\noc_noc_project\noc_project\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BA4C74-32C9-4C89-937B-DF4FCCE98C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4C67C8-D08C-4C9C-882D-CA1B0B578932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
   <si>
     <t>Project Name</t>
   </si>
@@ -319,9 +319,6 @@
   </si>
   <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>Wan2</t>
   </si>
   <si>
     <t>T21-CPF-HQ-MTG</t>
@@ -374,9 +371,6 @@
     <t>HQ-S001</t>
   </si>
   <si>
-    <t>เทส เทส</t>
-  </si>
-  <si>
     <t>DEV.</t>
   </si>
   <si>
@@ -402,6 +396,43 @@
   </si>
   <si>
     <t>Suradech</t>
+  </si>
+  <si>
+    <t>PPLUS</t>
+  </si>
+  <si>
+    <t>กาต้า</t>
+  </si>
+  <si>
+    <t>ใกล้เสาแรก</t>
+  </si>
+  <si>
+    <t>FIFA</t>
+  </si>
+  <si>
+    <t>03-722161</t>
+  </si>
+  <si>
+    <t>ประชาชน</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>S108EN5920004745</t>
+  </si>
+  <si>
+    <t>X13488</t>
+  </si>
+  <si>
+    <t>True Corporation</t>
+  </si>
+  <si>
+    <t>T21-CPF-HQ-MTA
+T21-CPF-HQ-MTB</t>
+  </si>
+  <si>
+    <t>Wan3</t>
   </si>
 </sst>
 </file>
@@ -520,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -577,6 +608,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,7 +941,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -968,27 +1014,30 @@
         <v>62</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="E3" s="28">
+        <v>36800</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1052,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4E697B-494D-4CFB-A0D3-56E0E3C6F8AD}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1084,7 +1133,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -1101,121 +1150,121 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1223,16 +1272,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1242,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5BAF10-A374-48B0-BF63-03A539AB3F83}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1275,7 +1324,7 @@
         <v>41</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>6</v>
@@ -1295,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>10</v>
@@ -1306,25 +1355,42 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1336,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C4538D-A9C6-4419-A534-3D1C2D6860D7}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1386,7 +1452,7 @@
         <v>66</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>54</v>
@@ -1425,7 +1491,7 @@
         <v>65</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
         <v>3</v>
@@ -1464,7 +1530,7 @@
         <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L3" t="s">
         <v>3</v>
@@ -1494,7 +1560,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="23">
-        <v>44835</v>
+        <v>44749</v>
       </c>
       <c r="I4" s="23">
         <v>45200</v>
@@ -1549,7 +1615,19 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="27">
+        <v>44907</v>
+      </c>
       <c r="K6" s="21"/>
+      <c r="L6" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1558,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42071DE7-271E-433C-BF96-D6B847DE1ABE}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1591,10 +1669,10 @@
         <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>48</v>
@@ -1641,11 +1719,11 @@
       <c r="H2" s="16">
         <v>1</v>
       </c>
-      <c r="I2" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16" t="b">
-        <v>1</v>
+      <c r="I2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>30</v>
@@ -1683,8 +1761,8 @@
       <c r="I3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="16" t="b">
-        <v>1</v>
+      <c r="J3" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>30</v>
@@ -1708,7 +1786,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>53</v>
@@ -1719,31 +1797,43 @@
       <c r="H4" s="16">
         <v>3</v>
       </c>
-      <c r="I4" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="16" t="b">
-        <v>1</v>
+      <c r="I4" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>30</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B569AB54-1FEC-4B39-B108-82526651B452}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1864,7 @@
         <v>87</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>88</v>
@@ -1818,16 +1908,28 @@
         <v>16</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/noc_project/upload/data_up_load.xlsx
+++ b/noc_project/upload/data_up_load.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nat03\Documents\noc_noc_project\noc_project\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4C67C8-D08C-4C9C-882D-CA1B0B578932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C53831-BD46-4518-9EEE-797177818EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="126">
   <si>
     <t>Project Name</t>
   </si>
@@ -414,9 +414,6 @@
   </si>
   <si>
     <t>ประชาชน</t>
-  </si>
-  <si>
-    <t>USA</t>
   </si>
   <si>
     <t>S108EN5920004745</t>
@@ -551,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -610,15 +607,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1030,7 +1023,7 @@
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="27">
         <v>36800</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1294,7 +1287,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1402,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C4538D-A9C6-4419-A534-3D1C2D6860D7}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1616,12 +1609,12 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <v>44907</v>
       </c>
       <c r="K6" s="21"/>
@@ -1639,7 +1632,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1720,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>30</v>
@@ -1761,8 +1754,8 @@
       <c r="I3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="30" t="s">
-        <v>124</v>
+      <c r="J3" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>30</v>
@@ -1798,10 +1791,10 @@
         <v>3</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>30</v>
@@ -1812,10 +1805,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>122</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>123</v>
       </c>
       <c r="L5" t="s">
         <v>115</v>
@@ -1832,7 +1825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B569AB54-1FEC-4B39-B108-82526651B452}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1908,7 +1901,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>91</v>
@@ -1919,13 +1912,13 @@
     </row>
     <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/noc_project/upload/data_up_load.xlsx
+++ b/noc_project/upload/data_up_load.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nat03\Documents\noc_noc_project\noc_project\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nat03\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C53831-BD46-4518-9EEE-797177818EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B83CB7-F63A-43AA-8A04-B37B064CFAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="110">
   <si>
     <t>Project Name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Makro</t>
   </si>
   <si>
-    <t>SO200162</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -223,12 +220,6 @@
   </si>
   <si>
     <t>Vpn Detail</t>
-  </si>
-  <si>
-    <t>IP : 58.97.106.134
-Port : 10443
-Username : pplus
-Password : pplus@123</t>
   </si>
   <si>
     <t>088-8888888</t>
@@ -319,6 +310,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Wan2</t>
   </si>
   <si>
     <t>T21-CPF-HQ-MTG</t>
@@ -371,6 +365,9 @@
     <t>HQ-S001</t>
   </si>
   <si>
+    <t>เทส เทส</t>
+  </si>
+  <si>
     <t>DEV.</t>
   </si>
   <si>
@@ -380,56 +377,7 @@
     <t>เก็บข้อมูล detail ขนาดใหญ่ เว้นบรรทัดได้</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Super</t>
-  </si>
-  <si>
-    <t>099-6253877</t>
-  </si>
-  <si>
-    <t>Super_test</t>
-  </si>
-  <si>
-    <t>Suradech</t>
-  </si>
-  <si>
-    <t>PPLUS</t>
-  </si>
-  <si>
-    <t>กาต้า</t>
-  </si>
-  <si>
-    <t>ใกล้เสาแรก</t>
-  </si>
-  <si>
-    <t>FIFA</t>
-  </si>
-  <si>
-    <t>03-722161</t>
-  </si>
-  <si>
-    <t>ประชาชน</t>
-  </si>
-  <si>
-    <t>S108EN5920004745</t>
-  </si>
-  <si>
-    <t>X13488</t>
-  </si>
-  <si>
-    <t>True Corporation</t>
-  </si>
-  <si>
-    <t>T21-CPF-HQ-MTA
-T21-CPF-HQ-MTB</t>
-  </si>
-  <si>
-    <t>Wan3</t>
+    <t xml:space="preserve">Suradech </t>
   </si>
 </sst>
 </file>
@@ -548,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -605,17 +553,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -960,25 +897,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>2</v>
@@ -988,49 +925,20 @@
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="23">
-        <v>44835</v>
-      </c>
-      <c r="D2" s="23">
-        <v>45200</v>
-      </c>
-      <c r="E2" s="23">
-        <v>44835</v>
-      </c>
-      <c r="F2" s="23">
-        <v>45200</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>62</v>
-      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="27">
-        <v>36800</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1095,7 +1003,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1112,152 +1020,89 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,7 +1116,7 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>108</v>
@@ -1284,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5BAF10-A374-48B0-BF63-03A539AB3F83}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1302,25 +1147,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1328,62 +1173,45 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1395,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C4538D-A9C6-4419-A534-3D1C2D6860D7}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1415,40 +1243,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="G1" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1457,22 +1285,22 @@
         <v>ลาดกระบัง</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="H2" s="23">
         <v>44835</v>
@@ -1481,10 +1309,10 @@
         <v>45200</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
         <v>3</v>
@@ -1496,22 +1324,22 @@
         <v>ลาดกระบัง</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="H3" s="23">
         <v>44835</v>
@@ -1520,10 +1348,10 @@
         <v>45200</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s">
         <v>3</v>
@@ -1535,34 +1363,34 @@
         <v>ลาดกระบัง</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="23">
-        <v>44749</v>
+        <v>44835</v>
       </c>
       <c r="I4" s="23">
         <v>45200</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -1574,22 +1402,22 @@
         <v>ลาดกระบัง</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="H5" s="23">
         <v>44835</v>
@@ -1598,29 +1426,17 @@
         <v>45200</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="26">
-        <v>44907</v>
-      </c>
       <c r="K6" s="21"/>
-      <c r="L6" t="s">
-        <v>115</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1629,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42071DE7-271E-433C-BF96-D6B847DE1ABE}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1650,40 +1466,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="I1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>83</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1692,34 +1508,34 @@
         <v>FGT60FTK20054815</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="H2" s="16">
         <v>1</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>123</v>
+      <c r="I2" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16" t="b">
+        <v>1</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
         <v>3</v>
@@ -1731,34 +1547,34 @@
         <v>FGT60FTK20036867</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="E3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="16">
         <v>2</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>123</v>
+        <v>33</v>
+      </c>
+      <c r="J3" s="16" t="b">
+        <v>1</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
         <v>3</v>
@@ -1770,63 +1586,51 @@
         <v>S108EN5920004706</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="H4" s="16">
         <v>3</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>123</v>
+      <c r="I4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="16" t="b">
+        <v>1</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B569AB54-1FEC-4B39-B108-82526651B452}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1842,87 +1646,75 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="19" t="str">
         <f>Equipment!B2</f>
         <v>FGT60FTK20054815</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>124</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/noc_project/upload/data_up_load.xlsx
+++ b/noc_project/upload/data_up_load.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nat03\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B83CB7-F63A-43AA-8A04-B37B064CFAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA85AF9-4903-4FEA-9899-250BEFD0863C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="108">
   <si>
     <t>Project Name</t>
   </si>
@@ -339,20 +339,6 @@
     <t>ประชา เทสเซอร์วิส</t>
   </si>
   <si>
-    <t>ผู้ติดต่อหลัก : XXXXXXXXXX
-Sale True : พี่ปู่
-Sale PPLUS : ปลา</t>
-  </si>
-  <si>
-    <t>Fortimanager IP : 10.x.x.x
-Fortianalyzer IP : 10.4.4.4
-HQ IP 10.g.g.g
-Remote HQ Port : 5444
-*VPN Token ใช้จากเครื่อง On-call*
-**VPN ใช้แบบ SSL VPN**
-*** ลูกค้าไม่ให้โทรหากลัง 18:00-7:00</t>
-  </si>
-  <si>
     <t>Officemate</t>
   </si>
   <si>
@@ -377,7 +363,7 @@
     <t>เก็บข้อมูล detail ขนาดใหญ่ เว้นบรรทัดได้</t>
   </si>
   <si>
-    <t xml:space="preserve">Suradech </t>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -870,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -921,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
@@ -931,15 +917,11 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="24" t="s">
-        <v>100</v>
-      </c>
+      <c r="H2" s="24"/>
       <c r="I2" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>109</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="J2" s="24"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4"/>
@@ -1034,7 +1016,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -1051,7 +1033,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -1059,7 +1041,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -1067,7 +1049,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -1075,7 +1057,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -1083,7 +1065,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -1091,7 +1073,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -1099,7 +1081,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -1110,16 +1092,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1144,7 @@
         <v>40</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>5</v>
@@ -1193,25 +1175,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/noc_project/upload/data_up_load.xlsx
+++ b/noc_project/upload/data_up_load.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nat03\Documents\noc_noc_project\noc_project\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E8B01C-8BE9-4DDA-B96E-4F3C4B8591BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67E7908-1C1A-4A30-B01B-59BCEBEB5957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="140">
   <si>
     <t>Project Name</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>S108EN5920004745</t>
-  </si>
-  <si>
-    <t>12/12/2022</t>
   </si>
   <si>
     <t>S108EN5920004706</t>
@@ -830,7 +827,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1255,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1450,11 +1447,11 @@
       <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
+      <c r="H5" s="2">
+        <v>36526</v>
+      </c>
+      <c r="I5" s="2">
+        <v>37289</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
@@ -1471,13 +1468,13 @@
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
         <v>84</v>
@@ -1509,13 +1506,13 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
         <v>84</v>
@@ -1557,37 +1554,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1595,34 +1592,34 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>112</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>113</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>114</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>115</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>116</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" t="s">
         <v>117</v>
-      </c>
-      <c r="J2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1630,7 +1627,7 @@
         <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -1665,69 +1662,69 @@
         <v>89</v>
       </c>
       <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
         <v>120</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>121</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
         <v>122</v>
       </c>
-      <c r="E4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" t="s">
         <v>123</v>
       </c>
-      <c r="G4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>124</v>
       </c>
-      <c r="I4" t="s">
-        <v>125</v>
-      </c>
       <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" t="s">
         <v>117</v>
-      </c>
-      <c r="K4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
         <v>126</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>127</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
         <v>128</v>
       </c>
-      <c r="E5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>129</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>130</v>
       </c>
-      <c r="H5" t="s">
-        <v>131</v>
-      </c>
       <c r="I5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" t="s">
         <v>117</v>
-      </c>
-      <c r="J5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1745,10 +1742,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>72</v>
@@ -1757,18 +1754,18 @@
         <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
@@ -1780,18 +1777,18 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
@@ -1809,12 +1806,12 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>89</v>
@@ -1826,13 +1823,13 @@
         <v>83</v>
       </c>
       <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>139</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/noc_project/upload/data_up_load.xlsx
+++ b/noc_project/upload/data_up_load.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Project" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contract" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Site" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Equipment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Circuit" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interface" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Project" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Contract" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Site" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Equipment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Circuit" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Interface" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>เลขที่ 6/1 หมู่ 1 ตำบล</t>
+          <t>เลขที่ 6/1 หมู่ 1 ตำบลพยอม อำเภอวังน้อย พระนครศรีอยุธยา</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
